--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33260-d1801654-Reviews-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Americas-Best-Value-Inn-Westminster.h4555054.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,318 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r524239035-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>1801654</t>
+  </si>
+  <si>
+    <t>524239035</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>"AWESOME STAY"</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 3 days and 2 nights. This hotel was "AWESOME" . The room that I had was clean, nice jazcuzzi, and no bugs....Besides that, there wasn't any breakfast at all and the beds are too soft....i enjoyed staying here because the stafff was very friendly and the places are very convenient. It's just 10-15 mins away to the john Wayne airport... I would recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel for 3 days and 2 nights. This hotel was "AWESOME" . The room that I had was clean, nice jazcuzzi, and no bugs....Besides that, there wasn't any breakfast at all and the beds are too soft....i enjoyed staying here because the stafff was very friendly and the places are very convenient. It's just 10-15 mins away to the john Wayne airport... I would recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r475388971-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>475388971</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great little hotel</t>
+  </si>
+  <si>
+    <t>Great little hotel, staff is very friendly and accommodating. Rooms are very clean, beds are very comfortable. For the price it's definitely 5 stars!! you can't beat it!! Will definitely stay at againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Great little hotel, staff is very friendly and accommodating. Rooms are very clean, beds are very comfortable. For the price it's definitely 5 stars!! you can't beat it!! Will definitely stay at againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r432507414-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>432507414</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Alcohol and pill bottles</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"
+So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)
+We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. 
+We stayed the next night and it was noisy, this seems to be a party hotel. After checking out...I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. We stayed the next night and it was noisy, this seems to be a party hotel. After checking out the next day I see that no charge had been put on my account so I felt that I had been compensated for my trouble. Days go by and still no charge. But today, as I am looking back on my account history I see a charge from the 15th of the full amount, which is about 6 days after our check out. I will never be visiting this hotel again and will advise everyone not to as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"
+So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)
+We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. 
+We stayed the next night and it was noisy, this seems to be a party hotel. After checking out...I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. We stayed the next night and it was noisy, this seems to be a party hotel. After checking out the next day I see that no charge had been put on my account so I felt that I had been compensated for my trouble. Days go by and still no charge. But today, as I am looking back on my account history I see a charge from the 15th of the full amount, which is about 6 days after our check out. I will never be visiting this hotel again and will advise everyone not to as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r328042135-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>328042135</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Very clean and helpful</t>
+  </si>
+  <si>
+    <t>I came to visit a sick friend at the Hoag Hospital in Newport Beach and all other hotels were well over 150.00 dollars a night, while the lower priced ones were very sketchy looking by outside appearances. This hotel is perfect for a person who needs a clean comfortable room to get a good nights sleep in. Modern large flat screen TV, microwave, refrigerator and enough room for a comfortable shower. Plus free coffee in the morning. Check in was easy and Nick at the front desk was cordial and helpful for directions and assistance.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>I came to visit a sick friend at the Hoag Hospital in Newport Beach and all other hotels were well over 150.00 dollars a night, while the lower priced ones were very sketchy looking by outside appearances. This hotel is perfect for a person who needs a clean comfortable room to get a good nights sleep in. Modern large flat screen TV, microwave, refrigerator and enough room for a comfortable shower. Plus free coffee in the morning. Check in was easy and Nick at the front desk was cordial and helpful for directions and assistance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r291421614-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>291421614</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>Average budget friendly hotel</t>
+  </si>
+  <si>
+    <t>Stayed for three nights, two off the nights when we came back from sighting. Our key card had to be re-scanned, it had us locked out. When we were gone sight seeing, we had do not disturb on our door. The maid would come in anyway! Overall the rooms were clean, nice big TV with HBO and had small refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed for three nights, two off the nights when we came back from sighting. Our key card had to be re-scanned, it had us locked out. When we were gone sight seeing, we had do not disturb on our door. The maid would come in anyway! Overall the rooms were clean, nice big TV with HBO and had small refrigerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r280070494-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>280070494</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>Very disappointed, I was there to get a room for my brother and I, friends dropped us off, the guy at the office called me at room not even a minute after and started insulting me calling me name, he thought my friends where gonna stay even do I went to office to let him know that it was only for two people he called the police after insulting me over and over, he is a very disrespectful person I had to call the cops because he threated me and refuse to give me my money back, I was very scare because the way he yelled at me and called me names, I asked him for the cooperation number he said I am not giving you anything, I told him I was gonna call the cops and he said to me: (you are not getting your money back, go ahead call the police we do this all the time cops won't be able to help you) cops arrived all they could do was getting the coorperation number and told me to come back and talk to the owner and if he refuse to give me the money back,  the only option I had was to take them to court,Thank god I took video of the guy insulting me.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Very disappointed, I was there to get a room for my brother and I, friends dropped us off, the guy at the office called me at room not even a minute after and started insulting me calling me name, he thought my friends where gonna stay even do I went to office to let him know that it was only for two people he called the police after insulting me over and over, he is a very disrespectful person I had to call the cops because he threated me and refuse to give me my money back, I was very scare because the way he yelled at me and called me names, I asked him for the cooperation number he said I am not giving you anything, I told him I was gonna call the cops and he said to me: (you are not getting your money back, go ahead call the police we do this all the time cops won't be able to help you) cops arrived all they could do was getting the coorperation number and told me to come back and talk to the owner and if he refuse to give me the money back,  the only option I had was to take them to court,Thank god I took video of the guy insulting me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r261179728-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>261179728</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Hidden Gem</t>
+  </si>
+  <si>
+    <t>I spent one night in a Jacuzzi room. It was amazing from check in to check out. Internet signal/speed was pretty fast also. We didn't stayed for the breakfast as we had other plans for breakfast. I would definitely come back and highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I spent one night in a Jacuzzi room. It was amazing from check in to check out. Internet signal/speed was pretty fast also. We didn't stayed for the breakfast as we had other plans for breakfast. I would definitely come back and highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r240231335-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>240231335</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Hidden Gem for the cost!</t>
+  </si>
+  <si>
+    <t>I came across this hotel after another I was going to stay at had no vacancies,  turns out the price was lower rooms were remodeled and very clean, and the staff are very friendly, this is my new go to hotel when visiting the area. I have stayed several times and the customer service never changes! ☆☆☆☆☆MoreShow less</t>
+  </si>
+  <si>
+    <t>indy d, General Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded November 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2014</t>
+  </si>
+  <si>
+    <t>I came across this hotel after another I was going to stay at had no vacancies,  turns out the price was lower rooms were remodeled and very clean, and the staff are very friendly, this is my new go to hotel when visiting the area. I have stayed several times and the customer service never changes! ☆☆☆☆☆More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r202484167-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>202484167</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Fantastic location</t>
+  </si>
+  <si>
+    <t>It was close to Huntington Beach, close to Java Cafe, and 20 mins from Santa Ana where I needed to work. So I got to go running on the beach; it's simply a matter of driving south on Beach Blvd and turning left on PCH1 (aka: Pacific Coast Highway). But moreso, Danny heads up the fort and he is a very kind man. He was very nice and patient when I didn't realize checkout time was 11 or 11:30. I had thought it was 12. So I really appreciated him and still do!!! I would stay there again. And I know I wrote another review for this place somewhere else online back when I took this trip.The condition of the place was fine. It was clean. It is a beach motel and it was great to have that vibe. It was also safe as they had video cameras everywhere. There was a service elevator I was grateful for since I had a lot of things for work, plus my own luggage. It was outside access to the rooms from the balcony and not very far to walk from the elevator at all. I liked it so much that I wish I could make an excuse to go there again. &lt;3 Great memories.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>ibdesai, General Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>It was close to Huntington Beach, close to Java Cafe, and 20 mins from Santa Ana where I needed to work. So I got to go running on the beach; it's simply a matter of driving south on Beach Blvd and turning left on PCH1 (aka: Pacific Coast Highway). But moreso, Danny heads up the fort and he is a very kind man. He was very nice and patient when I didn't realize checkout time was 11 or 11:30. I had thought it was 12. So I really appreciated him and still do!!! I would stay there again. And I know I wrote another review for this place somewhere else online back when I took this trip.The condition of the place was fine. It was clean. It is a beach motel and it was great to have that vibe. It was also safe as they had video cameras everywhere. There was a service elevator I was grateful for since I had a lot of things for work, plus my own luggage. It was outside access to the rooms from the balcony and not very far to walk from the elevator at all. I liked it so much that I wish I could make an excuse to go there again. &lt;3 Great memories.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r186682201-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>186682201</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Great choice and price for a few days stay!</t>
+  </si>
+  <si>
+    <t>This hotel was a perfect choice, great in every way. The service was really good and the attendants are really nice. The hotel itself is really clean and the  price is good. The room is big and it included everything I needed. I will most definitely stay here any time I visit California. MoreShow less</t>
+  </si>
+  <si>
+    <t>indy d, Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2013</t>
+  </si>
+  <si>
+    <t>This hotel was a perfect choice, great in every way. The service was really good and the attendants are really nice. The hotel itself is really clean and the  price is good. The room is big and it included everything I needed. I will most definitely stay here any time I visit California. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r170319309-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>170319309</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Nicely decorated rooms</t>
+  </si>
+  <si>
+    <t>I called the hotel minutes before arriving.  The gentleman who answered the phone told me he had one room left and took my name and said he would hold it for me for 30 minutes.  when we got to the hotel 20 minutes later the lady at the front desk acted like their were no rooms left, she acted like she didn't want to assist us so I  asked her if I could speak to the gentleman.  He came and assisted us.  The room was remodeled, small but clean. Breakfast was grab and go pastries served in the entrance area which was extremely small also they did not have enoughpastries for all of us.  Even though the rooms were nice I would not stay here again due to the lady's attitude towards us and her being reluctant to assist us.  Based on that I would not recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>I called the hotel minutes before arriving.  The gentleman who answered the phone told me he had one room left and took my name and said he would hold it for me for 30 minutes.  when we got to the hotel 20 minutes later the lady at the front desk acted like their were no rooms left, she acted like she didn't want to assist us so I  asked her if I could speak to the gentleman.  He came and assisted us.  The room was remodeled, small but clean. Breakfast was grab and go pastries served in the entrance area which was extremely small also they did not have enoughpastries for all of us.  Even though the rooms were nice I would not stay here again due to the lady's attitude towards us and her being reluctant to assist us.  Based on that I would not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r169343845-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>169343845</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Good prices, great motel!</t>
+  </si>
+  <si>
+    <t>Clean, good location and excellent service! We stayed for one night during a road trip. If you are travelling by car and don't need to stay downtown this is a perfect choice! The motel looks like it's been renovated recently, the staff was very friendly and service minded. It's close to locations like huntington beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Clean, good location and excellent service! We stayed for one night during a road trip. If you are travelling by car and don't need to stay downtown this is a perfect choice! The motel looks like it's been renovated recently, the staff was very friendly and service minded. It's close to locations like huntington beach.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +960,792 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>82</v>
+      </c>
+      <c r="X12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>82</v>
+      </c>
+      <c r="X13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Princesscali2013</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I booked this hotel for 3 days and 2 nights. This hotel was "AWESOME" . The room that I had was clean, nice jazcuzzi, and no bugs....Besides that, there wasn't any breakfast at all and the beds are too soft....i enjoyed staying here because the stafff was very friendly and the places are very convenient. It's just 10-15 mins away to the john Wayne airport... I would recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>beachbums7169</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r475388971-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
   </si>
   <si>
     <t>Great little hotel, staff is very friendly and accommodating. Rooms are very clean, beds are very comfortable. For the price it's definitely 5 stars!! you can't beat it!! Will definitely stay at againMore</t>
+  </si>
+  <si>
+    <t>Leah C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r432507414-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -249,6 +258,9 @@
 We stayed the next night and it was noisy, this seems to be a party hotel. After checking out...I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. We stayed the next night and it was noisy, this seems to be a party hotel. After checking out the next day I see that no charge had been put on my account so I felt that I had been compensated for my trouble. Days go by and still no charge. But today, as I am looking back on my account history I see a charge from the 15th of the full amount, which is about 6 days after our check out. I will never be visiting this hotel again and will advise everyone not to as well.More</t>
   </si>
   <si>
+    <t>atravlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r328042135-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -279,6 +291,9 @@
     <t>I came to visit a sick friend at the Hoag Hospital in Newport Beach and all other hotels were well over 150.00 dollars a night, while the lower priced ones were very sketchy looking by outside appearances. This hotel is perfect for a person who needs a clean comfortable room to get a good nights sleep in. Modern large flat screen TV, microwave, refrigerator and enough room for a comfortable shower. Plus free coffee in the morning. Check in was easy and Nick at the front desk was cordial and helpful for directions and assistance.More</t>
   </si>
   <si>
+    <t>Kim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r291421614-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>Stayed for three nights, two off the nights when we came back from sighting. Our key card had to be re-scanned, it had us locked out. When we were gone sight seeing, we had do not disturb on our door. The maid would come in anyway! Overall the rooms were clean, nice big TV with HBO and had small refrigerator.More</t>
   </si>
   <si>
+    <t>Patulec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r280070494-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Very disappointed, I was there to get a room for my brother and I, friends dropped us off, the guy at the office called me at room not even a minute after and started insulting me calling me name, he thought my friends where gonna stay even do I went to office to let him know that it was only for two people he called the police after insulting me over and over, he is a very disrespectful person I had to call the cops because he threated me and refuse to give me my money back, I was very scare because the way he yelled at me and called me names, I asked him for the cooperation number he said I am not giving you anything, I told him I was gonna call the cops and he said to me: (you are not getting your money back, go ahead call the police we do this all the time cops won't be able to help you) cops arrived all they could do was getting the coorperation number and told me to come back and talk to the owner and if he refuse to give me the money back,  the only option I had was to take them to court,Thank god I took video of the guy insulting me.More</t>
   </si>
   <si>
+    <t>jasmeeroberoi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r261179728-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>I spent one night in a Jacuzzi room. It was amazing from check in to check out. Internet signal/speed was pretty fast also. We didn't stayed for the breakfast as we had other plans for breakfast. I would definitely come back and highly recommend.More</t>
   </si>
   <si>
+    <t>ttam1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r240231335-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>I came across this hotel after another I was going to stay at had no vacancies,  turns out the price was lower rooms were remodeled and very clean, and the staff are very friendly, this is my new go to hotel when visiting the area. I have stayed several times and the customer service never changes! ☆☆☆☆☆More</t>
   </si>
   <si>
+    <t>Peet R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r202484167-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>It was close to Huntington Beach, close to Java Cafe, and 20 mins from Santa Ana where I needed to work. So I got to go running on the beach; it's simply a matter of driving south on Beach Blvd and turning left on PCH1 (aka: Pacific Coast Highway). But moreso, Danny heads up the fort and he is a very kind man. He was very nice and patient when I didn't realize checkout time was 11 or 11:30. I had thought it was 12. So I really appreciated him and still do!!! I would stay there again. And I know I wrote another review for this place somewhere else online back when I took this trip.The condition of the place was fine. It was clean. It is a beach motel and it was great to have that vibe. It was also safe as they had video cameras everywhere. There was a service elevator I was grateful for since I had a lot of things for work, plus my own luggage. It was outside access to the rooms from the balcony and not very far to walk from the elevator at all. I liked it so much that I wish I could make an excuse to go there again. &lt;3 Great memories.More</t>
   </si>
   <si>
+    <t>maria102938</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r186682201-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>This hotel was a perfect choice, great in every way. The service was really good and the attendants are really nice. The hotel itself is really clean and the  price is good. The room is big and it included everything I needed. I will most definitely stay here any time I visit California. More</t>
   </si>
   <si>
+    <t>LeeJad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r170319309-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -439,6 +472,9 @@
   </si>
   <si>
     <t>I called the hotel minutes before arriving.  The gentleman who answered the phone told me he had one room left and took my name and said he would hold it for me for 30 minutes.  when we got to the hotel 20 minutes later the lady at the front desk acted like their were no rooms left, she acted like she didn't want to assist us so I  asked her if I could speak to the gentleman.  He came and assisted us.  The room was remodeled, small but clean. Breakfast was grab and go pastries served in the entrance area which was extremely small also they did not have enoughpastries for all of us.  Even though the rooms were nice I would not stay here again due to the lady's attitude towards us and her being reluctant to assist us.  Based on that I would not recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>jontebotas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r169343845-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -964,43 +1000,47 @@
       <c r="A2" t="n">
         <v>48579</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>150080</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1016,56 +1056,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>48579</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>150081</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1077,47 +1121,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>48579</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>112720</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -1134,56 +1182,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>48579</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>150082</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1199,56 +1251,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>48579</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12669</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1266,56 +1322,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>48579</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>150083</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1327,56 +1387,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>48579</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>150084</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1394,47 +1458,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>48579</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>150085</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -1461,56 +1529,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>48579</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>150086</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1532,47 +1604,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>48579</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>150087</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1599,47 +1675,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>48579</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>150088</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
@@ -1666,56 +1746,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>48579</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>150089</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1737,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Princesscali2013</t>
-  </si>
-  <si>
-    <t>06/27/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r555168001-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>1801654</t>
+  </si>
+  <si>
+    <t>555168001</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Great Job</t>
+  </si>
+  <si>
+    <t>This place is nice and clean for a great price.  Staff is very friendly and helpful!  The beds are very comfortable and we even have room access to the outdoor garden patio area with the pool right there.  I would recommend this hotel for anyone especially for families. Only 45 minutes from San Francisco MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>This place is nice and clean for a great price.  Staff is very friendly and helpful!  The beds are very comfortable and we even have room access to the outdoor garden patio area with the pool right there.  I would recommend this hotel for anyone especially for families. Only 45 minutes from San Francisco More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r525727059-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>525727059</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Terrible experience at this location. While this is not supposed to be a "nice" motel, compared to other Americas Best Value Inns this one seems extremely ghetto. I have stayed at various Americas Best Value Inns around the country mostly when on long road trips if in need an impromptu stay and if other hotel options are not available. The rooms are usually adequate.The person at the front desk seemed exceptionally rude and did not want to honor the reservation even though there were rooms available. Maybe it was because I was not wearing sport jerseys, did not smoke or did not have tattoos all over my body.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2017</t>
+  </si>
+  <si>
+    <t>Terrible experience at this location. While this is not supposed to be a "nice" motel, compared to other Americas Best Value Inns this one seems extremely ghetto. I have stayed at various Americas Best Value Inns around the country mostly when on long road trips if in need an impromptu stay and if other hotel options are not available. The rooms are usually adequate.The person at the front desk seemed exceptionally rude and did not want to honor the reservation even though there were rooms available. Maybe it was because I was not wearing sport jerseys, did not smoke or did not have tattoos all over my body.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r524239035-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
-    <t>33260</t>
-  </si>
-  <si>
-    <t>1801654</t>
-  </si>
-  <si>
     <t>524239035</t>
   </si>
   <si>
@@ -180,9 +237,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded September 17, 2017</t>
   </si>
   <si>
@@ -192,9 +246,6 @@
     <t>I booked this hotel for 3 days and 2 nights. This hotel was "AWESOME" . The room that I had was clean, nice jazcuzzi, and no bugs....Besides that, there wasn't any breakfast at all and the beds are too soft....i enjoyed staying here because the stafff was very friendly and the places are very convenient. It's just 10-15 mins away to the john Wayne airport... I would recommend this hotel to anyone.More</t>
   </si>
   <si>
-    <t>beachbums7169</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r475388971-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -223,9 +274,6 @@
   </si>
   <si>
     <t>Great little hotel, staff is very friendly and accommodating. Rooms are very clean, beds are very comfortable. For the price it's definitely 5 stars!! you can't beat it!! Will definitely stay at againMore</t>
-  </si>
-  <si>
-    <t>Leah C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r432507414-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -258,7 +306,58 @@
 We stayed the next night and it was noisy, this seems to be a party hotel. After checking out...I stayed in this hotel for two nights. The first, we came in after a long day and I happened to think to look under the mattress. I lift the mattress and immediately see empty pill and alcohol bottles from a previous guest. I start to become very uncomfortable so I call the front desk to see what they can do, they say "give me 5 minutes"So we wait, it was about 10 minutes later that I have all of my stuff packed and am ready to change rooms or leave and I still hadn't heard anything so we go to the office to ask and the guy was just sitting there. We explained to him the situation again and he says he will change our room. We settle for that because it's a Friday night and it would be very difficult to find a hotel. The guy takes his time before we finally get a room, when he gives our new room key some friends follow him. (It was over 30 minutes before we got a new room)We go to our new room and just for the heck of it I check under the mattress, where I find a broken window screen. We call the front desk to let them know and they say to set it outside. We stayed the next night and it was noisy, this seems to be a party hotel. After checking out the next day I see that no charge had been put on my account so I felt that I had been compensated for my trouble. Days go by and still no charge. But today, as I am looking back on my account history I see a charge from the 15th of the full amount, which is about 6 days after our check out. I will never be visiting this hotel again and will advise everyone not to as well.More</t>
   </si>
   <si>
-    <t>atravlr</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r400637609-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>400637609</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Great for the value</t>
+  </si>
+  <si>
+    <t>This is not a top tier hotel, but it's clean, easily accessible and the staff was lovely.  I felt completely safe and the window fan kept the sound of the street silent. Only stayed for one night and felt totally safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>This is not a top tier hotel, but it's clean, easily accessible and the staff was lovely.  I felt completely safe and the window fan kept the sound of the street silent. Only stayed for one night and felt totally safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r398763700-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>398763700</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Good value!</t>
+  </si>
+  <si>
+    <t>Needed a place to stay for one night, and everything else in the area was booked. Wasn't the prettiest neighborhood, but the hotel was clean and quiet and had free Wi-Fi. Also, I really appreciated the friendly welcome I got from the front desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>N K, Guest Relations Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Needed a place to stay for one night, and everything else in the area was booked. Wasn't the prettiest neighborhood, but the hotel was clean and quiet and had free Wi-Fi. Also, I really appreciated the friendly welcome I got from the front desk staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r328042135-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -291,9 +390,6 @@
     <t>I came to visit a sick friend at the Hoag Hospital in Newport Beach and all other hotels were well over 150.00 dollars a night, while the lower priced ones were very sketchy looking by outside appearances. This hotel is perfect for a person who needs a clean comfortable room to get a good nights sleep in. Modern large flat screen TV, microwave, refrigerator and enough room for a comfortable shower. Plus free coffee in the morning. Check in was easy and Nick at the front desk was cordial and helpful for directions and assistance.More</t>
   </si>
   <si>
-    <t>Kim G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r291421614-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -312,15 +408,9 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Stayed for three nights, two off the nights when we came back from sighting. Our key card had to be re-scanned, it had us locked out. When we were gone sight seeing, we had do not disturb on our door. The maid would come in anyway! Overall the rooms were clean, nice big TV with HBO and had small refrigerator.More</t>
   </si>
   <si>
-    <t>Patulec</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r280070494-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -342,7 +432,43 @@
     <t>Very disappointed, I was there to get a room for my brother and I, friends dropped us off, the guy at the office called me at room not even a minute after and started insulting me calling me name, he thought my friends where gonna stay even do I went to office to let him know that it was only for two people he called the police after insulting me over and over, he is a very disrespectful person I had to call the cops because he threated me and refuse to give me my money back, I was very scare because the way he yelled at me and called me names, I asked him for the cooperation number he said I am not giving you anything, I told him I was gonna call the cops and he said to me: (you are not getting your money back, go ahead call the police we do this all the time cops won't be able to help you) cops arrived all they could do was getting the coorperation number and told me to come back and talk to the owner and if he refuse to give me the money back,  the only option I had was to take them to court,Thank god I took video of the guy insulting me.More</t>
   </si>
   <si>
-    <t>jasmeeroberoi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r278622783-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>278622783</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>It is a budget type average hotel at best</t>
+  </si>
+  <si>
+    <t>The room was smaller than I expected. No free breakfast unless you consider a pastry and coffee breakfast. We had an upstairs room on the second floor. All night long we could hear the street noise. I don't think the walls were well insulated.In our particular room, they had an ironing board but no iron. Oops! Someone forgot. The bed was comfortable and the tv channel selection was better than most. The shower was fine. Could have used more towels in the bathroom area. If you don't expect a lot for the money then this is your type of place. If you are expecting more or want more from a hotel, look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was smaller than I expected. No free breakfast unless you consider a pastry and coffee breakfast. We had an upstairs room on the second floor. All night long we could hear the street noise. I don't think the walls were well insulated.In our particular room, they had an ironing board but no iron. Oops! Someone forgot. The bed was comfortable and the tv channel selection was better than most. The shower was fine. Could have used more towels in the bathroom area. If you don't expect a lot for the money then this is your type of place. If you are expecting more or want more from a hotel, look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r265241641-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>265241641</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I normally stay at more expensive hotels, but this was going to be a beach stay, so my wife and I chose a less expensive place.  For the price we paid, it was a very good stay.  The motel had a big flat screen tv, had all of the cable channels that we normally watch, had clean rooms, fast internet access, and a comfortable bed.  Front desk guys were very nice as well.  The free breakfast was a little lacking, but it was free so you can't expect too much.    Overall, I would stay here again for all of our beach vacations.  As long as you remember that this is a motel and not a hotel, you will not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I normally stay at more expensive hotels, but this was going to be a beach stay, so my wife and I chose a less expensive place.  For the price we paid, it was a very good stay.  The motel had a big flat screen tv, had all of the cable channels that we normally watch, had clean rooms, fast internet access, and a comfortable bed.  Front desk guys were very nice as well.  The free breakfast was a little lacking, but it was free so you can't expect too much.    Overall, I would stay here again for all of our beach vacations.  As long as you remember that this is a motel and not a hotel, you will not be disappointed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r261179728-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -363,15 +489,9 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I spent one night in a Jacuzzi room. It was amazing from check in to check out. Internet signal/speed was pretty fast also. We didn't stayed for the breakfast as we had other plans for breakfast. I would definitely come back and highly recommend.More</t>
   </si>
   <si>
-    <t>ttam1973</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r240231335-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -396,9 +516,6 @@
     <t>I came across this hotel after another I was going to stay at had no vacancies,  turns out the price was lower rooms were remodeled and very clean, and the staff are very friendly, this is my new go to hotel when visiting the area. I have stayed several times and the customer service never changes! ☆☆☆☆☆More</t>
   </si>
   <si>
-    <t>Peet R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r202484167-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -426,7 +543,52 @@
     <t>It was close to Huntington Beach, close to Java Cafe, and 20 mins from Santa Ana where I needed to work. So I got to go running on the beach; it's simply a matter of driving south on Beach Blvd and turning left on PCH1 (aka: Pacific Coast Highway). But moreso, Danny heads up the fort and he is a very kind man. He was very nice and patient when I didn't realize checkout time was 11 or 11:30. I had thought it was 12. So I really appreciated him and still do!!! I would stay there again. And I know I wrote another review for this place somewhere else online back when I took this trip.The condition of the place was fine. It was clean. It is a beach motel and it was great to have that vibe. It was also safe as they had video cameras everywhere. There was a service elevator I was grateful for since I had a lot of things for work, plus my own luggage. It was outside access to the rooms from the balcony and not very far to walk from the elevator at all. I liked it so much that I wish I could make an excuse to go there again. &lt;3 Great memories.More</t>
   </si>
   <si>
-    <t>maria102938</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r199807156-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>199807156</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Great Location; Affodable</t>
+  </si>
+  <si>
+    <t>A great room; Nicely decorated and clean.  Had everything you would need for a short stay.Microwave, fridge, TV.  Comfortable, quiet and a great value.  Location is close to shopping,restaurants, and any thing else you may need.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>A great room; Nicely decorated and clean.  Had everything you would need for a short stay.Microwave, fridge, TV.  Comfortable, quiet and a great value.  Location is close to shopping,restaurants, and any thing else you may need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r189399244-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>189399244</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Excellent location &amp; rate</t>
+  </si>
+  <si>
+    <t>Even though this is a small hotel but its excellent service and clean room made our stay wonderful. We spent a night here to attend a wedding and were happy that we chose this hotel. We would stay here again on our next trip to visit the O.C. area. Love the quick breakfast and its coffee to go.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>ibdesai, General Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded January 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2014</t>
+  </si>
+  <si>
+    <t>Even though this is a small hotel but its excellent service and clean room made our stay wonderful. We spent a night here to attend a wedding and were happy that we chose this hotel. We would stay here again on our next trip to visit the O.C. area. Love the quick breakfast and its coffee to go.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r186682201-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
@@ -453,9 +615,6 @@
     <t>This hotel was a perfect choice, great in every way. The service was really good and the attendants are really nice. The hotel itself is really clean and the  price is good. The room is big and it included everything I needed. I will most definitely stay here any time I visit California. More</t>
   </si>
   <si>
-    <t>LeeJad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r170319309-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -474,9 +633,6 @@
     <t>I called the hotel minutes before arriving.  The gentleman who answered the phone told me he had one room left and took my name and said he would hold it for me for 30 minutes.  when we got to the hotel 20 minutes later the lady at the front desk acted like their were no rooms left, she acted like she didn't want to assist us so I  asked her if I could speak to the gentleman.  He came and assisted us.  The room was remodeled, small but clean. Breakfast was grab and go pastries served in the entrance area which was extremely small also they did not have enoughpastries for all of us.  Even though the rooms were nice I would not stay here again due to the lady's attitude towards us and her being reluctant to assist us.  Based on that I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
-    <t>jontebotas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r169343845-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -496,6 +652,33 @@
   </si>
   <si>
     <t>Clean, good location and excellent service! We stayed for one night during a road trip. If you are travelling by car and don't need to stay downtown this is a perfect choice! The motel looks like it's been renovated recently, the staff was very friendly and service minded. It's close to locations like huntington beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d1801654-r141772198-Americas_Best_Value_Inn_Westminster_Huntington_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>141772198</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Was driving by, decided to spend the night here since it was here and we were tired.  It was a pleasant surprise.  The rooms were clean, nice big tv and free wifi.  The place is located near the freeway so we were back on the road quick.  The breakfast wasnt all that, but we just wanted a snack, so it was good for that.  I can say honestly, this place surprised me.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>indy d, General Manager at Americas Best Value Inn Westminster / Huntington Beach, responded to this reviewResponded October 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2012</t>
+  </si>
+  <si>
+    <t>Was driving by, decided to spend the night here since it was here and we were tired.  It was a pleasant surprise.  The rooms were clean, nice big tv and free wifi.  The place is located near the freeway so we were back on the road quick.  The breakfast wasnt all that, but we just wanted a snack, so it was good for that.  I can say honestly, this place surprised me.More</t>
   </si>
 </sst>
 </file>
@@ -1000,382 +1183,354 @@
       <c r="A2" t="n">
         <v>48579</v>
       </c>
-      <c r="B2" t="n">
-        <v>150080</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>48579</v>
       </c>
-      <c r="B3" t="n">
-        <v>150081</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>48579</v>
       </c>
-      <c r="B4" t="n">
-        <v>112720</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>48579</v>
       </c>
-      <c r="B5" t="n">
-        <v>150082</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>48579</v>
       </c>
-      <c r="B6" t="n">
-        <v>12669</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-      <c r="O6" t="s">
-        <v>96</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>48579</v>
       </c>
-      <c r="B7" t="n">
-        <v>150083</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>99</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1387,68 +1542,64 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>48579</v>
       </c>
-      <c r="B8" t="n">
-        <v>150084</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>108</v>
       </c>
-      <c r="J8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1458,286 +1609,258 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>48579</v>
       </c>
-      <c r="B9" t="n">
-        <v>150085</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O9" t="s">
         <v>118</v>
       </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
         <v>121</v>
-      </c>
-      <c r="X9" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>48579</v>
       </c>
-      <c r="B10" t="n">
-        <v>150086</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>127</v>
       </c>
-      <c r="K10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>130</v>
-      </c>
-      <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>3</v>
       </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>48579</v>
       </c>
-      <c r="B11" t="n">
-        <v>150087</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>48579</v>
       </c>
-      <c r="B12" t="n">
-        <v>150088</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
       <c r="P12" t="n">
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>3</v>
@@ -1746,73 +1869,65 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>48579</v>
       </c>
-      <c r="B13" t="n">
-        <v>150089</v>
-      </c>
-      <c r="C13" t="s">
-        <v>150</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1821,13 +1936,636 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>119</v>
+      </c>
+      <c r="X20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>208</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>119</v>
+      </c>
+      <c r="X21" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>48579</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
